--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Analyst Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E225E-709A-4146-8AF3-50A917FD74C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="4" activeTab="9" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="LeftRight" sheetId="4" r:id="rId4"/>
     <sheet name="DateToText" sheetId="3" r:id="rId5"/>
     <sheet name="TRIM" sheetId="6" r:id="rId6"/>
-    <sheet name="Substitute" sheetId="7" r:id="rId7"/>
-    <sheet name="SUM-SumIF" sheetId="12" r:id="rId8"/>
-    <sheet name="Count-CountIF" sheetId="5" r:id="rId9"/>
-    <sheet name="Concatenate" sheetId="1" r:id="rId10"/>
+    <sheet name="Concatenate" sheetId="1" r:id="rId7"/>
+    <sheet name="Substitute" sheetId="7" r:id="rId8"/>
+    <sheet name="SUM-SumIF" sheetId="12" r:id="rId9"/>
+    <sheet name="Count-CountIF" sheetId="5" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="90">
   <si>
     <t>FirstName</t>
   </si>
@@ -256,9 +278,6 @@
     <t>It just removes unwanted spaces on both sides</t>
   </si>
   <si>
-    <t>TEXT(H2,"dd/mm/yyyy")</t>
-  </si>
-  <si>
     <t>with 1 instance</t>
   </si>
   <si>
@@ -308,13 +327,22 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>TEXT Format</t>
+  </si>
+  <si>
+    <t>TEXT(H2,"dd/mm/yyyy") Wrong if the cell is in Date format. We have to change it to TEXT Format in order to get "Right or Left" crop of numbers or textes)</t>
+  </si>
+  <si>
+    <t>Now can use "Right" format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +352,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -349,11 +384,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,17 +718,17 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="D1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -712,13 +757,13 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -746,10 +791,16 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <f>MAX(I2:I10)</f>
+        <v>42986</v>
+      </c>
+      <c r="K2" s="1">
+        <f>MIN(H2:H10)</f>
+        <v>35040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -777,10 +828,8 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -809,7 +858,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -838,7 +887,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -867,7 +916,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -896,7 +945,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -925,7 +974,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -954,7 +1003,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -989,27 +1038,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D217F6E-9452-40AF-AFA2-377600A25F44}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1038,10 +1083,16 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1069,8 +1120,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>COUNT(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(E2:E10, "Male")</f>
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(F2:F10,"Salesman", G2:G10,"&gt;40000")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1099,7 +1162,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1128,7 +1191,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1157,7 +1220,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1186,7 +1249,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1215,7 +1278,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1244,7 +1307,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1273,7 +1336,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1300,18 +1363,6 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" t="str">
-        <f t="shared" ref="H3:H12" si="0">CONCATENATE(B11," ",C11)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
@@ -1330,13 +1381,13 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1406,7 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -1365,13 +1416,13 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1390,17 +1441,17 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1419,17 +1470,17 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1448,17 +1499,17 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1477,17 +1528,17 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1506,17 +1557,17 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1535,17 +1586,17 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1564,17 +1615,17 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1593,17 +1644,17 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1622,13 +1673,13 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1642,20 +1693,22 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="C1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1684,13 +1737,16 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1718,8 +1774,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">IF( D2:D10 &gt; 30, "OLD", "Young")</f>
+        <v>Young</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">_xlfn.IFS( F2:F10 = "Salesman", "Bonus", F2:F10 = "Regional Manager", "Bonus", F2:F10 = "HR", "None", F2:F10 = "Receptionist", "Bonus", F2:F10 = "Accountant", "None", F2:F10 = "Supplier Relations", "Bonus")</f>
+        <v>Bonus</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">_xlfn.IFS( E2:E10 = "Male", "Performance Provision", E2:E10 = "Female", "Department Change")</f>
+        <v>Performance Provision</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1747,8 +1815,17 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Bonus</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Department Change</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1776,8 +1853,17 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Bonus</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Performance Provision</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1805,8 +1891,17 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <v>OLD</v>
+      </c>
+      <c r="K5" t="str">
+        <v>None</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Department Change</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1834,8 +1929,17 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v>OLD</v>
+      </c>
+      <c r="K6" t="str">
+        <v>None</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Performance Provision</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1863,8 +1967,17 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>OLD</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Bonus</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Performance Provision</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1892,8 +2005,17 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>OLD</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Bonus</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Department Change</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1921,8 +2043,17 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>OLD</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Bonus</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Performance Provision</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1949,6 +2080,89 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>OLD</v>
+      </c>
+      <c r="K10" t="str">
+        <v>None</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Performance Provision</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="str" cm="1">
+        <f t="array" ref="E12:E20">IF(D2:D10 &gt; 30,"Old","Young")</f>
+        <v>Young</v>
+      </c>
+      <c r="F12" t="str" cm="1">
+        <f t="array" ref="F12:F20">_xlfn.IFS(F2:F10= "Salesman", "Bonus", F2:F10= "HR","Fire Immediately")</f>
+        <v>Bonus</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <v>Young</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <v>Young</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Bonus</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Fire Immediately</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Bonus</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1963,16 +2177,16 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="D1" zoomScale="147" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2035,8 +2249,12 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J10">LEN(F2:F10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2064,8 +2282,11 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2093,8 +2314,11 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2122,8 +2346,11 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2151,8 +2378,11 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2180,8 +2410,11 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2209,8 +2442,11 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2238,8 +2474,11 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2266,6 +2505,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2280,17 +2522,18 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="E1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2322,16 +2565,16 @@
         <v>38</v>
       </c>
       <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
       <c r="M1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2353,17 +2596,25 @@
       <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">LEFT(B2:B10, "4")</f>
+        <v>Jim</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">RIGHT(I2:I10, 4)</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2385,17 +2636,23 @@
       <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2417,17 +2674,23 @@
       <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" t="str">
+        <v>Dwig</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2449,17 +2712,23 @@
       <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" t="str">
+        <v>Ange</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2481,17 +2750,23 @@
       <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" t="str">
+        <v>Toby</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2513,17 +2788,23 @@
       <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7" t="str">
+        <v>Mich</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2545,17 +2826,23 @@
       <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" t="str">
+        <v>Mere</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2577,17 +2864,23 @@
       <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9" t="str">
+        <v>Stan</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2609,14 +2902,20 @@
       <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Kevi</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -2629,51 +2928,59 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="F1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2701,9 +3008,24 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="str" cm="1">
+        <f t="array" ref="J2:J10">RIGHT(I2:I10, 4)</f>
+        <v>2253</v>
+      </c>
+      <c r="K2" s="4" t="str" cm="1">
+        <f t="array" ref="K2:K10">TEXT(H2:H10, "dd/mm/yyyy")</f>
+        <v>02/11/2001</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">TEXT(I2:I10, "dd/mm/yyyy")</f>
+        <v>06/09/2015</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">RIGHT(_xlfn.ANCHORARRAY(L2),4)</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2731,9 +3053,20 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="3" t="str">
+        <v>2287</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <v>03/10/1999</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10/10/2015</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2761,9 +3094,20 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="3" t="str">
+        <v>2986</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <v>04/07/2000</v>
+      </c>
+      <c r="L4" t="str">
+        <v>08/09/2017</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2791,9 +3135,20 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="3" t="str">
+        <v>2341</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <v>05/01/2000</v>
+      </c>
+      <c r="L5" t="str">
+        <v>03/12/2015</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2821,9 +3176,20 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="3" t="str">
+        <v>2977</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <v>06/05/2001</v>
+      </c>
+      <c r="L6" t="str">
+        <v>30/08/2017</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2851,9 +3217,20 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="3" t="str">
+        <v>1528</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <v>07/12/1995</v>
+      </c>
+      <c r="L7" t="str">
+        <v>11/09/2013</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2881,9 +3258,20 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="3" t="str">
+        <v>1551</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <v>08/11/2003</v>
+      </c>
+      <c r="L8" t="str">
+        <v>04/10/2013</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2911,9 +3299,20 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="3" t="str">
+        <v>2116</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <v>09/06/2002</v>
+      </c>
+      <c r="L9" t="str">
+        <v>22/04/2015</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2941,13 +3340,66 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="3" t="str">
+        <v>0800</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <v>10/08/2003</v>
+      </c>
+      <c r="L10" t="str">
+        <v>14/09/2011</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12:I20">TEXT(I2:I10, "dd/mm/yyyy")</f>
+        <v>06/09/2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" t="str">
+        <v>10/10/2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <v>08/09/2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <v>03/12/2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <v>30/08/2017</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <v>11/09/2013</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <v>04/10/2013</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <v>22/04/2015</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <v>14/09/2011</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,16 +3414,16 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3006,14 +3458,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
@@ -3034,15 +3486,19 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TRIM(C2:C10)</f>
+        <v>Halpert</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3">
@@ -3063,15 +3519,18 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <v>Beasley</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4">
@@ -3092,15 +3551,18 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <v>Schrute</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5">
@@ -3121,15 +3583,18 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <v>Martin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D6">
@@ -3150,15 +3615,18 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v>Flenderson</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D7">
@@ -3179,15 +3647,18 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>Scott</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8">
@@ -3208,15 +3679,18 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>Palmer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9">
@@ -3237,15 +3711,18 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>Hudson</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D10">
@@ -3265,6 +3742,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3273,24 +3753,439 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>45000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37197</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42253</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(B2,C2, "@gmail.com")</f>
+        <v>JimHalpert@gmail.com</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE(B2,"  ",C2,"  ",F2)</f>
+        <v>Jim  Halpert  Salesman</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>36000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36436</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42287</v>
+      </c>
+      <c r="J3" t="str">
+        <f>CONCATENATE(B3,C3, "@gmail.com")</f>
+        <v>PamBeasley@gmail.com</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="0">CONCATENATE(B3,"  ",C3,"  ",F3)</f>
+        <v>Pam  Beasley  Receptionist</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>63000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36711</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42986</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J3:J12" si="1">CONCATENATE(B4,C4, "@gmail.com")</f>
+        <v>DwightSchrute@gmail.com</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight  Schrute  Salesman</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>47000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>36530</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42341</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>AngelaMartin@gmail.com</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela  Martin  Accountant</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>37017</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42977</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>TobyFlenderson@gmail.com</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>Toby  Flenderson  HR</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>65000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35040</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41528</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>MichaelScott@gmail.com</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael  Scott  Regional Manager</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>41000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>37933</v>
+      </c>
+      <c r="I8" s="1">
+        <v>41551</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>MeredithPalmer@gmail.com</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith  Palmer  Supplier Relations</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>48000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>37416</v>
+      </c>
+      <c r="I9" s="1">
+        <v>42116</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>StanleyHudson@gmail.com</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley  Hudson  Salesman</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>42000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>37843</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>KevinMalone@gmail.com</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin  Malone  Accountant</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" ref="H11:H12" si="2">CONCATENATE(B11," ",C11)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ref="K3:K12" si="3">CONCATENATE(B11," ",C11)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f>CONCATENATE(B2,"  ",C2,"  ",F2)</f>
+        <v>Jim  Halpert  Salesman</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Jim  Halpert  Salesman</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jim  Halpert  Salesman</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0B9C42-087D-43BC-95CC-49AE54CDC17A}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="C1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3309,7 +4204,7 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -3319,16 +4214,16 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3347,17 +4242,33 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(H2, "/", ".", 1)</f>
+        <v>11.2/2001</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">SUBSTITUTE(I2:I10,"/","-","2")</f>
+        <v>9/6-2015</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">SUBSTITUTE(I2:I10,"/","-")</f>
+        <v>9-6-2015</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">SUBSTITUTE(H2:H10, "/",".")</f>
+        <v>11.2.2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3376,17 +4287,30 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">SUBSTITUTE(H3, "/", ".", 1)</f>
+        <v>10.3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <v>10/10-2015</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10-10-2015</v>
+      </c>
+      <c r="M3" t="str">
+        <v>10.3.1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3405,17 +4329,30 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>7.4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <v>9/8-2017</v>
+      </c>
+      <c r="L4" t="str">
+        <v>9-8-2017</v>
+      </c>
+      <c r="M4" t="str">
+        <v>7.4.2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3434,17 +4371,30 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <v>12/3-2015</v>
+      </c>
+      <c r="L5" t="str">
+        <v>12-3-2015</v>
+      </c>
+      <c r="M5" t="str">
+        <v>1.5.2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3463,17 +4413,30 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>5.6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <v>8/30-2017</v>
+      </c>
+      <c r="L6" t="str">
+        <v>8-30-2017</v>
+      </c>
+      <c r="M6" t="str">
+        <v>5.6.2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3492,17 +4455,30 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>5.6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <v>9/11-2013</v>
+      </c>
+      <c r="L7" t="str">
+        <v>9-11-2013</v>
+      </c>
+      <c r="M7" t="str">
+        <v>5.6.2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3521,17 +4497,30 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>11.8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <v>9/11-2013</v>
+      </c>
+      <c r="L8" t="str">
+        <v>9-11-2013</v>
+      </c>
+      <c r="M8" t="str">
+        <v>11.8.2003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3550,17 +4539,30 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>6.9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <v>4/22-2015</v>
+      </c>
+      <c r="L9" t="str">
+        <v>4-22-2015</v>
+      </c>
+      <c r="M9" t="str">
+        <v>6.9.2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3579,51 +4581,64 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>8.10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <v>4/22-2015</v>
+      </c>
+      <c r="L10" t="str">
+        <v>4-22-2015</v>
+      </c>
+      <c r="M10" t="str">
+        <v>8.10.2003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3631,20 +4646,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D41C5D0-EC67-4288-8B29-30C6E5CFEE73}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="129" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3673,16 +4688,19 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3710,8 +4728,24 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(G2:G10,"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(G2:G10,D2:D10,"&gt;30")</f>
+        <v>293000</v>
+      </c>
+      <c r="M2">
+        <f>SUMIFS(G2:G10,F2:F10,"Salesman")</f>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3740,7 +4774,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3769,7 +4803,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3798,7 +4832,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3827,7 +4861,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3856,7 +4890,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3885,7 +4919,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3914,328 +4948,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>42000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>37843</v>
-      </c>
-      <c r="I10" s="1">
-        <v>40800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D217F6E-9452-40AF-AFA2-377600A25F44}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>45000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>37197</v>
-      </c>
-      <c r="I2" s="1">
-        <v>42253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>36000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>36436</v>
-      </c>
-      <c r="I3" s="1">
-        <v>42287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>63000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>36711</v>
-      </c>
-      <c r="I4" s="1">
-        <v>42986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>47000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>36530</v>
-      </c>
-      <c r="I5" s="1">
-        <v>42341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>37017</v>
-      </c>
-      <c r="I6" s="1">
-        <v>42977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>65000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>35040</v>
-      </c>
-      <c r="I7" s="1">
-        <v>41528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
-        <v>41000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>37933</v>
-      </c>
-      <c r="I8" s="1">
-        <v>41551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>48000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>37416</v>
-      </c>
-      <c r="I9" s="1">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
